--- a/datasets/FG and RM List.xlsx
+++ b/datasets/FG and RM List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vishal\PycharmProjects\mindshift\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B1E67A2-3E77-48DD-8081-560CD75A9D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A13703A-9BD4-4B3A-B69F-CB373DF25CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{83958823-9511-4676-9C8D-DBC1CA199FF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83958823-9511-4676-9C8D-DBC1CA199FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="FG_Battery" sheetId="2" r:id="rId1"/>
@@ -1260,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91620614-6CB9-46E8-9486-D1A8B4D80FF0}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4516,7 +4516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93AFB3E-F527-4213-B6BD-3CCE5C4458E1}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
